--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,69 +454,86 @@
           <t>정확도(%)</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IoU threshold</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gingiva(잇몸)</t>
+          <t>restoration(메탈,골드,아말감)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>64.79000000000001</v>
+        <v>79.31</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pulp(신경)</t>
+          <t>dentinA(상아질전방)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>54.55</v>
+        <v>49.04</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>cone cut</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
         <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>25.77</v>
+        <v>48.08</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dentinA(상아질전방)</t>
+          <t>implant fixture</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>72.12</v>
+        <v>45.83</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -529,58 +546,70 @@
         <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>abutment</t>
+          <t>enamel(법랑질)</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
       <c r="D7" t="n">
-        <v>21.05</v>
+        <v>32.76</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>implant fixture</t>
+          <t>gingiva(잇몸)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C8" t="n">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>79.17</v>
+        <v>26.76</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>enamel(법랑질)</t>
+          <t>restoration(레진, GI)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>75.86</v>
+        <v>18.75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
@@ -593,122 +622,146 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>81.81999999999999</v>
+        <v>18.18</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>restoration(메탈,골드,아말감)</t>
+          <t>GP cone</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>93.09999999999999</v>
+        <v>16.67</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cone cut</t>
+          <t>caries</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>76.92</v>
+        <v>9.52</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>restoration(레진, GI)</t>
+          <t>background</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>18.75</v>
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>caries</t>
+          <t>abutment</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>9.52</v>
+        <v>5.26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>void(엔도, 보철, 충전 결손부)</t>
+          <t>Pulp(신경)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.82</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>calculus</t>
+          <t>void(엔도, 보철, 충전 결손부)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GP cone</t>
+          <t>calculus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>37.5</v>
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="18">
@@ -726,6 +779,9 @@
       <c r="D18" t="n">
         <v>0</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -742,6 +798,9 @@
       <c r="D19" t="n">
         <v>0</v>
       </c>
+      <c r="E19" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +817,9 @@
       <c r="D20" t="n">
         <v>0</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -773,6 +835,9 @@
       </c>
       <c r="D21" t="n">
         <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,277 +463,277 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>restoration(메탈,골드,아말감)</t>
+          <t>cone cut</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>79.31</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dentinA(상아질전방)</t>
+          <t>dentineA(전방상아질)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="C3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49.04</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cone cut</t>
+          <t>Pulp(신경)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>48.08</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>implant fixture</t>
+          <t>background</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>45.83</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bone</t>
+          <t>gingiva(잇몸)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>enamel(법랑질)</t>
+          <t>bone</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>32.76</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>gingiva(잇몸)</t>
+          <t>enamel(법랑질)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>26.76</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>restoration(레진, GI)</t>
+          <t>중첩법랑질</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>18.75</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>중첩법랑질</t>
+          <t>restoration(메탈,골드,아말감)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GP cone</t>
+          <t>calculus</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>caries</t>
+          <t>GP cone</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>abutment</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9.279999999999999</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>abutment</t>
+          <t>implant fixture</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pulp(신경)</t>
+          <t>restoration(레진, GI)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>void(엔도, 보철, 충전 결손부)</t>
+          <t>caries</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -742,17 +742,17 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>calculus</t>
+          <t>Duble line bone</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -761,17 +761,17 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dentinB(상아질후방)</t>
+          <t>void(엔도, 보철, 충전 결손부)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -780,17 +780,17 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>duble line bone</t>
+          <t>post(metal. fiber)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>post(metal. fiber)</t>
+          <t>periapical abscess</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -818,26 +818,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>periapical abscess</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,58 +463,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cone cut</t>
+          <t>C1-caries(severe)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dentineA(전방상아질)</t>
+          <t>C3-caries(low)</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pulp(신경)</t>
+          <t>cone cut</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -524,35 +524,35 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gingiva(잇몸)</t>
+          <t>Pulp(신경)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
@@ -562,73 +562,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>enamel(법랑질)</t>
+          <t>dentinA(상아질전방)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>중첩법랑질</t>
+          <t>restoration(메탈,골드,아말감)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>restoration(메탈,골드,아말감)</t>
+          <t>enamel(법랑질)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11">
@@ -638,187 +638,54 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GP cone</t>
+          <t>restoration(레진, GI)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>abutment</t>
+          <t>C2-caries(medium)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>implant fixture</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>restoration(레진, GI)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>caries</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>22</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Duble line bone</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>void(엔도, 보철, 충전 결손부)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>post(metal. fiber)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>periapical abscess</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
